--- a/src/test/resources/com/w2a/excel/testdata.xlsx
+++ b/src/test/resources/com/w2a/excel/testdata.xlsx
@@ -4,29 +4,65 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
+    <sheet name="LoginTest" sheetId="4" r:id="rId2"/>
+    <sheet name="CreateAccountTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
-  <si>
-    <t>firstname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postcode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>TCID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runmode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tony.lucanada@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zohoAccount123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,120 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A484798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alerttext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer added successfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alertext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account created successfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>George</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A484799</t>
-  </si>
-  <si>
-    <t>A484800</t>
-  </si>
-  <si>
-    <t>A484801</t>
-  </si>
-  <si>
-    <t>Dollar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random Rough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runmode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankManagerLoginTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddCustomerTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenAccountTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>runmode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>CreateAccountTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +91,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,14 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -497,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -510,34 +444,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -549,145 +475,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
